--- a/MedicalLink/Templates/BC_115_KhoaChuanBiBNQD151.xlsx
+++ b/MedicalLink/Templates/BC_115_KhoaChuanBiBNQD151.xlsx
@@ -385,6 +385,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -410,18 +422,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:J4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="I1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N6" sqref="A6:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,96 +757,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="16"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="17"/>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="19"/>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="18"/>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="38" t="s">
+      <c r="D6" s="30"/>
+      <c r="E6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="38" t="s">
+      <c r="F6" s="30"/>
+      <c r="G6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="38" t="s">
+      <c r="H6" s="30"/>
+      <c r="I6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="36" t="s">
+      <c r="J6" s="30"/>
+      <c r="K6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="36" t="s">
+      <c r="M6" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="20" t="s">
         <v>14</v>
       </c>
@@ -871,9 +871,9 @@
       <c r="J7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
     </row>
     <row r="8" spans="1:14" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -913,10 +913,10 @@
       <c r="M8" s="26"/>
     </row>
     <row r="9" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="14">
         <f>SUM(C8:C8)</f>
         <v>0</v>
@@ -964,10 +964,10 @@
       <c r="C11" s="11"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="27"/>
+      <c r="K11" s="31"/>
       <c r="N11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1011,11 +1011,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
@@ -1029,6 +1024,11 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="C6:D6"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <conditionalFormatting sqref="A9 A8:L8 C9:L9">
     <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
